--- a/biology/Zoologie/Empis_spectabilis/Empis_spectabilis.xlsx
+++ b/biology/Zoologie/Empis_spectabilis/Empis_spectabilis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Empis spectabilis est une espèce d'insectes diptères brachycères (antennes courtes) de la famille des Empididae.
 Muni d'une courte trompe comme d'autres espèces de sa famille, c'est un prédateur d'autres insectes qu'il capture en vol. Son abdomen est recourbé vers le bas. 
@@ -512,7 +524,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Amérique du Nord : est des États-Unis.
 Sur les autres projets Wikimedia :
